--- a/TestDataXls/Student Paynow.xlsx
+++ b/TestDataXls/Student Paynow.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38930900-F4BC-4CCF-95D4-F8C6C0082F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6197B0AF-A2C5-4A35-A6DC-5EF254DA6038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,7 +713,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestDataXls/Student Paynow.xlsx
+++ b/TestDataXls/Student Paynow.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6197B0AF-A2C5-4A35-A6DC-5EF254DA6038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE43B3E-429C-4B55-847F-CD162B82A7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
   <si>
     <t>password</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Paynow</t>
   </si>
   <si>
-    <t>dependent</t>
-  </si>
-  <si>
     <t>Total_members</t>
   </si>
   <si>
@@ -223,6 +220,12 @@
   </si>
   <si>
     <t>net</t>
+  </si>
+  <si>
+    <t>denae_saeteun@hotmail.com</t>
+  </si>
+  <si>
+    <t>mv class 2</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,7 +775,7 @@
         <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
         <v>53</v>
@@ -787,7 +790,7 @@
         <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>18</v>
@@ -864,7 +867,7 @@
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
@@ -954,22 +957,22 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>63</v>
-      </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>54</v>
@@ -1042,15 +1045,32 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
       <c r="H4" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I4" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
@@ -1058,40 +1078,42 @@
       <c r="K4" s="5">
         <v>0</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
       <c r="M4" s="3">
         <v>4</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N4" si="6">M4+Q4</f>
         <v>5</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="O4" si="7">(((L4)*N4)*I4)</f>
+        <v>20</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q4" si="8">M4*R4</f>
         <v>1</v>
       </c>
       <c r="R4" s="3">
         <v>0.25</v>
       </c>
       <c r="S4" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T4" si="9">O4*S4</f>
         <v>0</v>
       </c>
       <c r="U4" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U4" si="10">S4*O4</f>
         <v>0</v>
       </c>
       <c r="V4" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="V4" si="11">O4+U4</f>
+        <v>20</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -1134,7 +1156,7 @@
         <v>8</v>
       </c>
       <c r="N5" s="9">
-        <f t="shared" ref="N5" si="6">M5+Q5</f>
+        <f t="shared" ref="N5" si="12">M5+Q5</f>
         <v>10</v>
       </c>
       <c r="O5" s="6">
@@ -1143,7 +1165,7 @@
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="9">
-        <f t="shared" ref="Q5" si="7">M5*R5</f>
+        <f t="shared" ref="Q5" si="13">M5*R5</f>
         <v>2</v>
       </c>
       <c r="R5" s="3">
@@ -1153,15 +1175,15 @@
         <v>0.01</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" ref="T5" si="8">O5*S5</f>
+        <f t="shared" ref="T5" si="14">O5*S5</f>
         <v>0</v>
       </c>
       <c r="U5" s="9">
-        <f t="shared" ref="U5" si="9">S5*O5</f>
+        <f t="shared" ref="U5" si="15">S5*O5</f>
         <v>0</v>
       </c>
       <c r="V5" s="6">
-        <f t="shared" ref="V5" si="10">O5+U5</f>
+        <f t="shared" ref="V5" si="16">O5+U5</f>
         <v>0</v>
       </c>
       <c r="W5" s="6"/>
@@ -1204,7 +1226,7 @@
         <v>8</v>
       </c>
       <c r="N6" s="9">
-        <f t="shared" ref="N6:N10" si="11">M6+Q6</f>
+        <f t="shared" ref="N6:N10" si="17">M6+Q6</f>
         <v>10</v>
       </c>
       <c r="O6" s="6">
@@ -1213,7 +1235,7 @@
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="9">
-        <f t="shared" ref="Q6:Q10" si="12">M6*R6</f>
+        <f t="shared" ref="Q6:Q10" si="18">M6*R6</f>
         <v>2</v>
       </c>
       <c r="R6" s="3">
@@ -1223,15 +1245,15 @@
         <v>0.01</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T10" si="13">O6*S6</f>
+        <f t="shared" ref="T6:T10" si="19">O6*S6</f>
         <v>0</v>
       </c>
       <c r="U6" s="9">
-        <f t="shared" ref="U6:U10" si="14">S6*O6</f>
+        <f t="shared" ref="U6:U10" si="20">S6*O6</f>
         <v>0</v>
       </c>
       <c r="V6" s="6">
-        <f t="shared" ref="V6:V10" si="15">O6+U6</f>
+        <f t="shared" ref="V6:V10" si="21">O6+U6</f>
         <v>0</v>
       </c>
       <c r="W6" s="6"/>
@@ -1274,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="N7" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="O7" s="6">
@@ -1283,7 +1305,7 @@
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="R7" s="3">
@@ -1293,15 +1315,15 @@
         <v>0.01</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U7" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V7" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W7" s="6"/>
@@ -1344,7 +1366,7 @@
         <v>8</v>
       </c>
       <c r="N8" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="O8" s="6">
@@ -1353,7 +1375,7 @@
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="R8" s="3">
@@ -1363,15 +1385,15 @@
         <v>0.01</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U8" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V8" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W8" s="6"/>
@@ -1414,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="O9" s="6">
@@ -1423,7 +1445,7 @@
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="R9" s="3">
@@ -1433,15 +1455,15 @@
         <v>0.01</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U9" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V9" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W9" s="6"/>
@@ -1484,7 +1506,7 @@
         <v>8</v>
       </c>
       <c r="N10" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="O10" s="6">
@@ -1493,7 +1515,7 @@
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="R10" s="3">
@@ -1503,15 +1525,15 @@
         <v>0.01</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U10" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V10" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W10" s="6"/>
@@ -1554,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="N11" s="9">
-        <f t="shared" ref="N11" si="16">M11+Q11</f>
+        <f t="shared" ref="N11" si="22">M11+Q11</f>
         <v>10</v>
       </c>
       <c r="O11" s="6">
@@ -1563,7 +1585,7 @@
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="9">
-        <f t="shared" ref="Q11" si="17">M11*R11</f>
+        <f t="shared" ref="Q11" si="23">M11*R11</f>
         <v>2</v>
       </c>
       <c r="R11" s="3">
@@ -1573,15 +1595,15 @@
         <v>0.01</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" ref="T11" si="18">O11*S11</f>
+        <f t="shared" ref="T11" si="24">O11*S11</f>
         <v>0</v>
       </c>
       <c r="U11" s="9">
-        <f t="shared" ref="U11" si="19">S11*O11</f>
+        <f t="shared" ref="U11" si="25">S11*O11</f>
         <v>0</v>
       </c>
       <c r="V11" s="6">
-        <f t="shared" ref="V11" si="20">O11+U11</f>
+        <f t="shared" ref="V11" si="26">O11+U11</f>
         <v>0</v>
       </c>
       <c r="W11" s="6"/>
